--- a/data/georgia_census/mcxeta-mtianeti/yazbegi/age_dependency.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/yazbegi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C693CAE1-A6FC-4DBC-A2EE-E81DAAE91CA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3670DD0-15DB-42A5-B175-275D3C447F80}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5171F539-DFA4-4453-A57E-A154EA9283C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{451919C2-B222-43F4-AF2F-C4BD2A078967}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D2D547-AF92-4848-B738-60E99892749E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50DF2EC-C45E-4B60-A280-CC939B9E0D98}"/>
 </file>